--- a/NEW_Client_Hash/Data/Config.xlsx
+++ b/NEW_Client_Hash/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\UIpath\Clients-Security-Hash-Code-Generator-main\Clients-Security-Hash-Code-Generator-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744AC85C-0F51-45B5-8D37-244F0F8FC291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295A0B3-D3C0-40E5-AEA7-76AAEB2C151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
